--- a/Data Files/InvalidEmail.xlsx
+++ b/Data Files/InvalidEmail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint1\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GVVignesh\Katalon Studio\WGR-Android-Automation\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911618A5-5A02-4E3B-A2E8-87451A185306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5D8985-F7F6-464F-B65D-72B279B4AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F87427C-10A3-4069-B9F4-D6BF257C3899}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Files/InvalidEmail.xlsx
+++ b/Data Files/InvalidEmail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GVVignesh\Katalon Studio\WGR-Android-Automation\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Downloads/WGR-Android-Automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5D8985-F7F6-464F-B65D-72B279B4AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E853720-80CE-E045-8EF1-9EBF6F3B6D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F87427C-10A3-4069-B9F4-D6BF257C3899}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{9F87427C-10A3-4069-B9F4-D6BF257C3899}"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid email address" sheetId="1" r:id="rId1"/>
@@ -41,19 +41,19 @@
     <t>email-Address</t>
   </si>
   <si>
-    <t>v.com</t>
-  </si>
-  <si>
     <t>d.g.com</t>
   </si>
   <si>
     <t>s@com</t>
   </si>
   <si>
-    <t>vg@.o</t>
-  </si>
-  <si>
-    <t>g@21</t>
+    <t>vg@.1gv</t>
+  </si>
+  <si>
+    <t>g@2.1</t>
+  </si>
+  <si>
+    <t>v.com@q</t>
   </si>
 </sst>
 </file>
@@ -437,42 +437,42 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -480,6 +480,7 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{76493833-8DC9-4AE6-86E3-35D4D62F8446}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{B96049B5-F538-4301-8AB3-BFBDA4D61D86}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{4DFF7828-37C1-47A6-8913-7A4706F80B51}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{C5B97C92-690E-A84A-BA76-1BA029C486BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
